--- a/01_Collect_sequences/01_Input_data/Metadata_sequences.xlsx
+++ b/01_Collect_sequences/01_Input_data/Metadata_sequences.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad bioinformatik/Applied-bioinformatics/Collect sequences/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad bioinformatik/Applied-bioinformatics/01_Collect_sequences/01_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5040FDF3-6E40-064A-A85A-87037E18A2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36210A-DB7C-8A47-A28D-D76D54D67CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17040" xr2:uid="{A2038ED0-8F7E-E745-BF2F-2D9FF8201B65}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17040" xr2:uid="{A2038ED0-8F7E-E745-BF2F-2D9FF8201B65}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Seqs not present in RefSeq" sheetId="2" r:id="rId2"/>
+    <sheet name="Convertion table" sheetId="5" r:id="rId2"/>
     <sheet name="Genus in Families" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Metadata" localSheetId="0">Metadata!$A$1:$F$263</definedName>
+    <definedName name="Metadata" localSheetId="0">Metadata!$A$1:$E$263</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="332">
   <si>
     <t>Abyssisolibacter   </t>
   </si>
@@ -365,9 +364,6 @@
     <t>Original list given by clients</t>
   </si>
   <si>
-    <t>Original list without doublets, colored according to taxonomic level. * indicates missing in RefSeq</t>
-  </si>
-  <si>
     <t>Aerococcus (Genus level)</t>
   </si>
   <si>
@@ -572,28 +568,6 @@
     <t xml:space="preserve">Prevotella </t>
   </si>
   <si>
-    <t>Species not present in RefSeq</t>
-  </si>
-  <si>
-    <t>Corresponding species GTDB - NCBI</t>
-  </si>
-  <si>
-    <t>Not present</t>
-  </si>
-  <si>
-    <t>Gardnerella vaginalis
-Gardnerella leopoldii</t>
-  </si>
-  <si>
-    <t>Gardnerella vaginalis
-Gardnerella piotii
-Peptoniphilus lacrimalis</t>
-  </si>
-  <si>
-    <t>Gardnerella vaginalis
-Gardnerella swidsinskii</t>
-  </si>
-  <si>
     <t>Hoylesella timonensis (Prevotella timonensis)</t>
   </si>
   <si>
@@ -2531,29 +2505,58 @@
     </r>
   </si>
   <si>
-    <t>Original list, with heterotypic synonyms</t>
-  </si>
-  <si>
     <t>Parafannyhessea umbonata</t>
   </si>
   <si>
     <t>Hoylesella timonensis</t>
   </si>
   <si>
-    <t>Final list, with missing species replaced with their NCBI correspondents (GTDB-NCBI), or removed</t>
-  </si>
-  <si>
     <t>Nanoperiomorbus sp004136275*</t>
   </si>
   <si>
     <t>Final list, without families</t>
+  </si>
+  <si>
+    <t>Conversion for species that are either missing in RefSeq (blue) or have heterotypic synonyms (orange)</t>
+  </si>
+  <si>
+    <t>Original species</t>
+  </si>
+  <si>
+    <t>Replaced by</t>
+  </si>
+  <si>
+    <t>Missing species were converted from GTDB to NCBI</t>
+  </si>
+  <si>
+    <t>Heterotypic synonyms were found from NCBI taxonomy browser</t>
+  </si>
+  <si>
+    <t>Atopobium vaginae^</t>
+  </si>
+  <si>
+    <t>Olsenella umbonata^</t>
+  </si>
+  <si>
+    <t>Prevotella timonensis^</t>
+  </si>
+  <si>
+    <t>Final list, with missing species replaced with their NCBI correspondents (GTDB-NCBI), or removed, and heterotypic synonyms replaced</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Original list without doublets, colored according to taxonomic level. 
+* indicates missing in RefSeq
+^ indicates heterotypic synonym</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2594,8 +2597,22 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2620,6 +2637,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2634,7 +2663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2643,16 +2672,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlänk" xfId="1" builtinId="8"/>
@@ -2992,54 +3025,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20183861-4879-2E47-BECC-DE4E5FA6B542}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3052,11 +3081,8 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3069,28 +3095,22 @@
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -3103,11 +3123,8 @@
       <c r="D6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3120,402 +3137,330 @@
       <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>108</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>109</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="4" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>114</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="C16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>120</v>
+      <c r="C19" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>123</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>124</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B25" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>127</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>128</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>28</v>
+        <v>318</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="E27" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -3523,50 +3468,41 @@
         <v>35</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="C32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E33" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -3574,33 +3510,27 @@
         <v>46</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -3608,16 +3538,13 @@
         <v>48</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>34</v>
       </c>
@@ -3625,84 +3552,69 @@
         <v>49</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E38" s="4" t="s">
+      <c r="C38" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -3710,224 +3622,178 @@
         <v>58</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E44" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>50</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>139</v>
       </c>
-      <c r="C46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B47" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>140</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>58</v>
       </c>
       <c r="B49" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>143</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>144</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E50" s="12"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C51" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>146</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="B52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E51" s="12"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>65</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E54" s="13"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3935,303 +3801,344 @@
         <v>75</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D56" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="B58" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C58" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" s="12"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D60" s="12"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>75</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>155</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="12"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>156</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="12"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>76</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="13"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>86</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>87</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:E54">
-    <sortCondition ref="E54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D3:D54">
+    <sortCondition ref="D54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0934417-8D6A-0F44-8780-7DA0E5CEB2B0}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6396E0C-F030-934A-B504-92F32879791C}">
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>178</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B27">
+    <sortCondition ref="B27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4246,830 +4153,830 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" style="9" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="9"/>
-    <col min="6" max="6" width="21.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="26" style="9" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="28.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="20.1640625" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="28" style="8" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" style="8" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="8"/>
+    <col min="6" max="6" width="21.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="26" style="8" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="28.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.1640625" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>159</v>
+      <c r="J1" s="7" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F4" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="F5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="F6" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="C7" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="G7" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="D13" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="D14" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="F6" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="F15" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="H16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="I18" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
+      <c r="I19" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="I20" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="I21" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="I23" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I25" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="9" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I16" s="9" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="I18" s="9" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="I29" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="I19" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="I20" s="9" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="I21" s="9" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D34" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D35" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D36" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D37" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22" s="9" t="s">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I38" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I39" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I40" s="8" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="I23" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="I25" s="9" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I41" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="I26" s="9" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I42" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="I28" s="9" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I43" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I44" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I45" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I46" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="I29" s="9" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I47" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I48" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I49" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="I30" s="9" t="s">
+    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I50" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I51" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I52" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I53" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I54" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I55" s="8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I56" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I57" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I58" s="8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I60" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I61" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I62" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I63" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I64" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I65" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I66" s="8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I67" s="8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I68" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I69" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I70" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I71" s="8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I72" s="8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I73" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I74" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I75" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I76" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I77" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I78" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I79" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I80" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D34" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D35" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D36" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D37" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I38" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I41" s="9" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I42" s="9" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I43" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I44" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I45" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I46" s="9" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I47" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I49" s="9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I50" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I51" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I52" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I53" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I54" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I55" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I61" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I62" s="10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I63" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I64" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I65" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I66" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I67" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I68" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I69" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I70" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I71" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I72" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I73" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I74" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I75" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I76" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="10" t="s">
-        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/01_Collect_sequences/01_Input_data/Metadata_sequences.xlsx
+++ b/01_Collect_sequences/01_Input_data/Metadata_sequences.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad bioinformatik/Applied-bioinformatics/01_Collect_sequences/01_Input_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad_bioinformatik/Applied-bioinformatics/01_Collect_sequences/01_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36210A-DB7C-8A47-A28D-D76D54D67CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A54491B-C001-CA45-8A29-E15AED366457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17040" xr2:uid="{A2038ED0-8F7E-E745-BF2F-2D9FF8201B65}"/>
+    <workbookView xWindow="9220" yWindow="500" windowWidth="19580" windowHeight="17040" activeTab="1" xr2:uid="{A2038ED0-8F7E-E745-BF2F-2D9FF8201B65}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Convertion table" sheetId="5" r:id="rId2"/>
-    <sheet name="Genus in Families" sheetId="4" r:id="rId3"/>
+    <sheet name="Downloaded" sheetId="6" r:id="rId2"/>
+    <sheet name="Convertion table" sheetId="5" r:id="rId3"/>
+    <sheet name="Genus in Families" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Metadata" localSheetId="0">Metadata!$A$1:$E$263</definedName>
+    <definedName name="Taxonomy_species_genus_corrected" localSheetId="1">Downloaded!$A$1:$H$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,11 +54,25 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" xr16:uid="{E3726AC7-CF11-D746-A42A-527F1B156F36}" name="Taxonomy_species_genus_corrected" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad_bioinformatik/Applied-bioinformatics/01_Collect_sequences/02_Sequences/Downloaded_5dec/Taxonomy_species_genus_corrected.csv" decimal="," thousands=" " comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="495">
   <si>
     <t>Abyssisolibacter   </t>
   </si>
@@ -2550,6 +2566,495 @@
     <t>Original list without doublets, colored according to taxonomic level. 
 * indicates missing in RefSeq
 ^ indicates heterotypic synonym</t>
+  </si>
+  <si>
+    <t>Feature ID</t>
+  </si>
+  <si>
+    <t>Kingdom</t>
+  </si>
+  <si>
+    <t>Phylum</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Genus</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>NZ_JBIWIT010000029.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bacillota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bacilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lactobacillales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aerococcaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aerococcus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> viridans</t>
+  </si>
+  <si>
+    <t>NZ_AMZK01000007.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> christensenii</t>
+  </si>
+  <si>
+    <t>NZ_KQ955743.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actinomycetota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actinomycetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bifidobacteriales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bifidobacteriaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alloscardovia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> omnicolens</t>
+  </si>
+  <si>
+    <t>NZ_KV803777.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tissierellia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tissierellales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peptoniphilaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anaerococcus</t>
+  </si>
+  <si>
+    <t>NZ_GG666064.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lactolyticus</t>
+  </si>
+  <si>
+    <t>NZ_GG666315.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tetradius</t>
+  </si>
+  <si>
+    <t>NZ_KE952952.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coriobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coriobacteriales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atopobiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atopobium</t>
+  </si>
+  <si>
+    <t>NZ_QSQE01000022.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bifidobacterium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bifidum</t>
+  </si>
+  <si>
+    <t>NZ_JAWWYB010000046.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> breve</t>
+  </si>
+  <si>
+    <t>NZ_JAJCRT010000018.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Negativicutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veillonellales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veillonellaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dialister</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> invisus</t>
+  </si>
+  <si>
+    <t>NZ_GL878522.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> micraerophilus</t>
+  </si>
+  <si>
+    <t>NZ_KQ961074.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fannyhessea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vaginae</t>
+  </si>
+  <si>
+    <t>NZ_JAJDKT010000074.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fusobacteriia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fusobacteriales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fusobacteriaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fusobacterium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ulcerans</t>
+  </si>
+  <si>
+    <t>NZ_JBGONE010000038.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> animalis</t>
+  </si>
+  <si>
+    <t>NZ_KI518418.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nucleatum</t>
+  </si>
+  <si>
+    <t>NZ_NQOJ01000020.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gardnerella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> vaginalis</t>
+  </si>
+  <si>
+    <t>NR_171541.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> leopoldii</t>
+  </si>
+  <si>
+    <t>NZ_QJVB01000008.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> swidsinskii</t>
+  </si>
+  <si>
+    <t>NZ_JASOME010000020.1</t>
+  </si>
+  <si>
+    <t>NZ_WBMB01000033.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pseudomonadota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gammaproteobacteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pasteurellales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pasteurellaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haemophilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parainfluenzae</t>
+  </si>
+  <si>
+    <t>NR_025423.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pittmaniae</t>
+  </si>
+  <si>
+    <t>NZ_ADEF01000068.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bacteroidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bacteroidales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prevotellaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoylesella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> timonensis</t>
+  </si>
+  <si>
+    <t>NZ_WUBT01000032.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lactobacillaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lactobacillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> crispatus</t>
+  </si>
+  <si>
+    <t>NZ_JADCKH010000039.1</t>
+  </si>
+  <si>
+    <t>NZ_JAWWWY010000070.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gasseri</t>
+  </si>
+  <si>
+    <t>NZ_PNGO01000009.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> iners</t>
+  </si>
+  <si>
+    <t>NZ_JAWWXF010000042.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> jensenii</t>
+  </si>
+  <si>
+    <t>NZ_JAVTXF010000046.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mulieris</t>
+  </si>
+  <si>
+    <t>NZ_CABTXI010000220.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Megasphaera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NZ_NFMF01000018.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hutchinsoni</t>
+  </si>
+  <si>
+    <t>NZ_AFIJ01000031.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lornae</t>
+  </si>
+  <si>
+    <t>NZ_FNWT01000022.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parafannyhessea</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> umbonata</t>
+  </si>
+  <si>
+    <t>NZ_JANDZW010000012.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parvimonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> micra</t>
+  </si>
+  <si>
+    <t>NZ_JASOSB010000012.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peptoniphilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> harei</t>
+  </si>
+  <si>
+    <t>NZ_JBBNGY010000024.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lacrimalis</t>
+  </si>
+  <si>
+    <t>NZ_CAXUJS010000060.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clostridia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peptostreptococcales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peptostreptococcaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peptostreptococcus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anaerobius</t>
+  </si>
+  <si>
+    <t>NZ_QPGS01000077.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porphyromonadaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porphyromonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gingivalis</t>
+  </si>
+  <si>
+    <t>NZ_JAERMS010000083.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prevotella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> illustrans</t>
+  </si>
+  <si>
+    <t>NZ_JRNU01000149.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> amnii</t>
+  </si>
+  <si>
+    <t>NZ_KQ971204.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bivia</t>
+  </si>
+  <si>
+    <t>NZ_JRNR01000257.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> disiens</t>
+  </si>
+  <si>
+    <t>NZ_JASSPP010000023.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leptotrichiaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sneathia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> sanguinegens</t>
+  </si>
+  <si>
+    <t>NZ_JBHLSP010000031.1</t>
+  </si>
+  <si>
+    <t>NZ_VYVJ01000030.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Streptococcaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Streptococcus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> anginosus</t>
+  </si>
+  <si>
+    <t>NZ_ABES01000007.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mycoplasmatota</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mycoplasmoidales</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mycoplasmoidaceae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ureaplasma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> parvum</t>
+  </si>
+  <si>
+    <t>NZ_JRNT01000025.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veillonella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> montpellierensis</t>
+  </si>
+  <si>
+    <t>Greengenes2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Yes (synonym)</t>
+  </si>
+  <si>
+    <t>Unassigned LR</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Unassigned SR</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -2706,6 +3211,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Metadata" connectionId="1" xr16:uid="{5066715D-DDBE-6B42-A36A-2F012452FC7A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Taxonomy_species_genus_corrected" connectionId="2" xr16:uid="{F68CD417-344D-144B-887E-5E45648F8ED8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3027,7 +3536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20183861-4879-2E47-BECC-DE4E5FA6B542}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3923,6 +4432,1438 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F05F86-3B20-6D42-86AB-4E472EE5464D}">
+  <dimension ref="A1:K47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D3" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" t="s">
+        <v>355</v>
+      </c>
+      <c r="H4" t="s">
+        <v>356</v>
+      </c>
+      <c r="I4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F5" t="s">
+        <v>360</v>
+      </c>
+      <c r="G5" t="s">
+        <v>361</v>
+      </c>
+      <c r="I5" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" t="s">
+        <v>342</v>
+      </c>
+      <c r="D6" t="s">
+        <v>358</v>
+      </c>
+      <c r="E6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" t="s">
+        <v>361</v>
+      </c>
+      <c r="H6" t="s">
+        <v>363</v>
+      </c>
+      <c r="I6" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7" t="s">
+        <v>365</v>
+      </c>
+      <c r="I7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" t="s">
+        <v>370</v>
+      </c>
+      <c r="I8" t="s">
+        <v>489</v>
+      </c>
+      <c r="J8" t="s">
+        <v>492</v>
+      </c>
+      <c r="K8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" t="s">
+        <v>353</v>
+      </c>
+      <c r="F9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" t="s">
+        <v>373</v>
+      </c>
+      <c r="I9" t="s">
+        <v>489</v>
+      </c>
+      <c r="J9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" t="s">
+        <v>351</v>
+      </c>
+      <c r="D10" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>354</v>
+      </c>
+      <c r="G10" t="s">
+        <v>372</v>
+      </c>
+      <c r="H10" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" t="s">
+        <v>489</v>
+      </c>
+      <c r="J10" t="s">
+        <v>494</v>
+      </c>
+      <c r="K10" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" t="s">
+        <v>377</v>
+      </c>
+      <c r="E11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F11" t="s">
+        <v>379</v>
+      </c>
+      <c r="G11" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" t="s">
+        <v>378</v>
+      </c>
+      <c r="F12" t="s">
+        <v>379</v>
+      </c>
+      <c r="G12" t="s">
+        <v>380</v>
+      </c>
+      <c r="H12" t="s">
+        <v>383</v>
+      </c>
+      <c r="I12" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" t="s">
+        <v>385</v>
+      </c>
+      <c r="H13" t="s">
+        <v>386</v>
+      </c>
+      <c r="I13" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" t="s">
+        <v>389</v>
+      </c>
+      <c r="E14" t="s">
+        <v>390</v>
+      </c>
+      <c r="F14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G14" t="s">
+        <v>391</v>
+      </c>
+      <c r="H14" t="s">
+        <v>392</v>
+      </c>
+      <c r="I14" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" t="s">
+        <v>389</v>
+      </c>
+      <c r="E15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F15" t="s">
+        <v>391</v>
+      </c>
+      <c r="G15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H15" t="s">
+        <v>394</v>
+      </c>
+      <c r="I15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" t="s">
+        <v>388</v>
+      </c>
+      <c r="D16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E16" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" t="s">
+        <v>391</v>
+      </c>
+      <c r="H16" t="s">
+        <v>396</v>
+      </c>
+      <c r="I16" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D17" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17" t="s">
+        <v>353</v>
+      </c>
+      <c r="F17" t="s">
+        <v>354</v>
+      </c>
+      <c r="G17" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17" t="s">
+        <v>489</v>
+      </c>
+      <c r="J17" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>400</v>
+      </c>
+      <c r="B18" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" t="s">
+        <v>351</v>
+      </c>
+      <c r="D18" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F18" t="s">
+        <v>354</v>
+      </c>
+      <c r="G18" t="s">
+        <v>398</v>
+      </c>
+      <c r="H18" t="s">
+        <v>401</v>
+      </c>
+      <c r="I18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" t="s">
+        <v>351</v>
+      </c>
+      <c r="D19" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" t="s">
+        <v>353</v>
+      </c>
+      <c r="F19" t="s">
+        <v>354</v>
+      </c>
+      <c r="G19" t="s">
+        <v>398</v>
+      </c>
+      <c r="H19" t="s">
+        <v>403</v>
+      </c>
+      <c r="I19" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C20" t="s">
+        <v>351</v>
+      </c>
+      <c r="D20" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" t="s">
+        <v>354</v>
+      </c>
+      <c r="G20" t="s">
+        <v>398</v>
+      </c>
+      <c r="H20" t="s">
+        <v>399</v>
+      </c>
+      <c r="I20" t="s">
+        <v>489</v>
+      </c>
+      <c r="J20" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" t="s">
+        <v>406</v>
+      </c>
+      <c r="D21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" t="s">
+        <v>408</v>
+      </c>
+      <c r="F21" t="s">
+        <v>409</v>
+      </c>
+      <c r="G21" t="s">
+        <v>410</v>
+      </c>
+      <c r="H21" t="s">
+        <v>411</v>
+      </c>
+      <c r="I21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" t="s">
+        <v>406</v>
+      </c>
+      <c r="D22" t="s">
+        <v>407</v>
+      </c>
+      <c r="E22" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" t="s">
+        <v>409</v>
+      </c>
+      <c r="G22" t="s">
+        <v>410</v>
+      </c>
+      <c r="H22" t="s">
+        <v>413</v>
+      </c>
+      <c r="I22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" t="s">
+        <v>415</v>
+      </c>
+      <c r="D23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" t="s">
+        <v>417</v>
+      </c>
+      <c r="F23" t="s">
+        <v>418</v>
+      </c>
+      <c r="G23" t="s">
+        <v>418</v>
+      </c>
+      <c r="H23" t="s">
+        <v>419</v>
+      </c>
+      <c r="I23" t="s">
+        <v>490</v>
+      </c>
+      <c r="K23" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C24" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" t="s">
+        <v>421</v>
+      </c>
+      <c r="G24" t="s">
+        <v>422</v>
+      </c>
+      <c r="H24" t="s">
+        <v>423</v>
+      </c>
+      <c r="I24" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>424</v>
+      </c>
+      <c r="B25" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" t="s">
+        <v>343</v>
+      </c>
+      <c r="E25" t="s">
+        <v>344</v>
+      </c>
+      <c r="F25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G25" t="s">
+        <v>422</v>
+      </c>
+      <c r="H25" t="s">
+        <v>423</v>
+      </c>
+      <c r="I25" t="s">
+        <v>489</v>
+      </c>
+      <c r="K25" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" t="s">
+        <v>344</v>
+      </c>
+      <c r="F26" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26" t="s">
+        <v>422</v>
+      </c>
+      <c r="H26" t="s">
+        <v>426</v>
+      </c>
+      <c r="I26" t="s">
+        <v>489</v>
+      </c>
+      <c r="J26" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" t="s">
+        <v>342</v>
+      </c>
+      <c r="D27" t="s">
+        <v>343</v>
+      </c>
+      <c r="E27" t="s">
+        <v>344</v>
+      </c>
+      <c r="F27" t="s">
+        <v>421</v>
+      </c>
+      <c r="G27" t="s">
+        <v>422</v>
+      </c>
+      <c r="H27" t="s">
+        <v>428</v>
+      </c>
+      <c r="I27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" t="s">
+        <v>342</v>
+      </c>
+      <c r="D28" t="s">
+        <v>343</v>
+      </c>
+      <c r="E28" t="s">
+        <v>344</v>
+      </c>
+      <c r="F28" t="s">
+        <v>421</v>
+      </c>
+      <c r="G28" t="s">
+        <v>422</v>
+      </c>
+      <c r="H28" t="s">
+        <v>430</v>
+      </c>
+      <c r="I28" t="s">
+        <v>489</v>
+      </c>
+      <c r="K28" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" t="s">
+        <v>342</v>
+      </c>
+      <c r="D29" t="s">
+        <v>343</v>
+      </c>
+      <c r="E29" t="s">
+        <v>344</v>
+      </c>
+      <c r="F29" t="s">
+        <v>421</v>
+      </c>
+      <c r="G29" t="s">
+        <v>422</v>
+      </c>
+      <c r="H29" t="s">
+        <v>432</v>
+      </c>
+      <c r="I29" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D30" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" t="s">
+        <v>379</v>
+      </c>
+      <c r="G30" t="s">
+        <v>434</v>
+      </c>
+      <c r="H30" t="s">
+        <v>435</v>
+      </c>
+      <c r="I30" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31" t="s">
+        <v>341</v>
+      </c>
+      <c r="C31" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" t="s">
+        <v>377</v>
+      </c>
+      <c r="E31" t="s">
+        <v>378</v>
+      </c>
+      <c r="F31" t="s">
+        <v>379</v>
+      </c>
+      <c r="G31" t="s">
+        <v>434</v>
+      </c>
+      <c r="H31" t="s">
+        <v>437</v>
+      </c>
+      <c r="I31" t="s">
+        <v>489</v>
+      </c>
+      <c r="J31" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" t="s">
+        <v>341</v>
+      </c>
+      <c r="C32" t="s">
+        <v>342</v>
+      </c>
+      <c r="D32" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G32" t="s">
+        <v>434</v>
+      </c>
+      <c r="H32" t="s">
+        <v>439</v>
+      </c>
+      <c r="I32" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>440</v>
+      </c>
+      <c r="B33" t="s">
+        <v>341</v>
+      </c>
+      <c r="C33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D33" t="s">
+        <v>367</v>
+      </c>
+      <c r="E33" t="s">
+        <v>368</v>
+      </c>
+      <c r="F33" t="s">
+        <v>369</v>
+      </c>
+      <c r="G33" t="s">
+        <v>441</v>
+      </c>
+      <c r="H33" t="s">
+        <v>442</v>
+      </c>
+      <c r="I33" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+      <c r="C34" t="s">
+        <v>342</v>
+      </c>
+      <c r="D34" t="s">
+        <v>358</v>
+      </c>
+      <c r="E34" t="s">
+        <v>359</v>
+      </c>
+      <c r="F34" t="s">
+        <v>360</v>
+      </c>
+      <c r="G34" t="s">
+        <v>444</v>
+      </c>
+      <c r="H34" t="s">
+        <v>445</v>
+      </c>
+      <c r="I34" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B35" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" t="s">
+        <v>342</v>
+      </c>
+      <c r="D35" t="s">
+        <v>358</v>
+      </c>
+      <c r="E35" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" t="s">
+        <v>360</v>
+      </c>
+      <c r="G35" t="s">
+        <v>447</v>
+      </c>
+      <c r="H35" t="s">
+        <v>448</v>
+      </c>
+      <c r="I35" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B36" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" t="s">
+        <v>342</v>
+      </c>
+      <c r="D36" t="s">
+        <v>358</v>
+      </c>
+      <c r="E36" t="s">
+        <v>359</v>
+      </c>
+      <c r="F36" t="s">
+        <v>360</v>
+      </c>
+      <c r="G36" t="s">
+        <v>447</v>
+      </c>
+      <c r="H36" t="s">
+        <v>450</v>
+      </c>
+      <c r="I36" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" t="s">
+        <v>341</v>
+      </c>
+      <c r="C37" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" t="s">
+        <v>452</v>
+      </c>
+      <c r="E37" t="s">
+        <v>453</v>
+      </c>
+      <c r="F37" t="s">
+        <v>454</v>
+      </c>
+      <c r="G37" t="s">
+        <v>455</v>
+      </c>
+      <c r="H37" t="s">
+        <v>456</v>
+      </c>
+      <c r="I37" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" t="s">
+        <v>341</v>
+      </c>
+      <c r="C38" t="s">
+        <v>415</v>
+      </c>
+      <c r="D38" t="s">
+        <v>416</v>
+      </c>
+      <c r="E38" t="s">
+        <v>458</v>
+      </c>
+      <c r="F38" t="s">
+        <v>459</v>
+      </c>
+      <c r="G38" t="s">
+        <v>459</v>
+      </c>
+      <c r="H38" t="s">
+        <v>460</v>
+      </c>
+      <c r="I38" t="s">
+        <v>489</v>
+      </c>
+      <c r="J38" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>461</v>
+      </c>
+      <c r="B39" t="s">
+        <v>341</v>
+      </c>
+      <c r="C39" t="s">
+        <v>415</v>
+      </c>
+      <c r="D39" t="s">
+        <v>416</v>
+      </c>
+      <c r="E39" t="s">
+        <v>417</v>
+      </c>
+      <c r="F39" t="s">
+        <v>462</v>
+      </c>
+      <c r="G39" t="s">
+        <v>462</v>
+      </c>
+      <c r="H39" t="s">
+        <v>463</v>
+      </c>
+      <c r="I39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B40" t="s">
+        <v>341</v>
+      </c>
+      <c r="C40" t="s">
+        <v>415</v>
+      </c>
+      <c r="D40" t="s">
+        <v>416</v>
+      </c>
+      <c r="E40" t="s">
+        <v>417</v>
+      </c>
+      <c r="F40" t="s">
+        <v>462</v>
+      </c>
+      <c r="G40" t="s">
+        <v>462</v>
+      </c>
+      <c r="H40" t="s">
+        <v>465</v>
+      </c>
+      <c r="I40" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>466</v>
+      </c>
+      <c r="B41" t="s">
+        <v>341</v>
+      </c>
+      <c r="C41" t="s">
+        <v>415</v>
+      </c>
+      <c r="D41" t="s">
+        <v>416</v>
+      </c>
+      <c r="E41" t="s">
+        <v>417</v>
+      </c>
+      <c r="F41" t="s">
+        <v>462</v>
+      </c>
+      <c r="G41" t="s">
+        <v>462</v>
+      </c>
+      <c r="H41" t="s">
+        <v>467</v>
+      </c>
+      <c r="I41" t="s">
+        <v>489</v>
+      </c>
+      <c r="K41" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>468</v>
+      </c>
+      <c r="B42" t="s">
+        <v>341</v>
+      </c>
+      <c r="C42" t="s">
+        <v>415</v>
+      </c>
+      <c r="D42" t="s">
+        <v>416</v>
+      </c>
+      <c r="E42" t="s">
+        <v>417</v>
+      </c>
+      <c r="F42" t="s">
+        <v>462</v>
+      </c>
+      <c r="G42" t="s">
+        <v>462</v>
+      </c>
+      <c r="H42" t="s">
+        <v>469</v>
+      </c>
+      <c r="I42" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>470</v>
+      </c>
+      <c r="B43" t="s">
+        <v>341</v>
+      </c>
+      <c r="C43" t="s">
+        <v>388</v>
+      </c>
+      <c r="D43" t="s">
+        <v>389</v>
+      </c>
+      <c r="E43" t="s">
+        <v>471</v>
+      </c>
+      <c r="F43" t="s">
+        <v>472</v>
+      </c>
+      <c r="G43" t="s">
+        <v>472</v>
+      </c>
+      <c r="H43" t="s">
+        <v>473</v>
+      </c>
+      <c r="I43" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>474</v>
+      </c>
+      <c r="B44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C44" t="s">
+        <v>388</v>
+      </c>
+      <c r="D44" t="s">
+        <v>389</v>
+      </c>
+      <c r="E44" t="s">
+        <v>471</v>
+      </c>
+      <c r="F44" t="s">
+        <v>472</v>
+      </c>
+      <c r="G44" t="s">
+        <v>472</v>
+      </c>
+      <c r="H44" t="s">
+        <v>399</v>
+      </c>
+      <c r="I44" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>475</v>
+      </c>
+      <c r="B45" t="s">
+        <v>341</v>
+      </c>
+      <c r="C45" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" t="s">
+        <v>343</v>
+      </c>
+      <c r="E45" t="s">
+        <v>344</v>
+      </c>
+      <c r="F45" t="s">
+        <v>476</v>
+      </c>
+      <c r="G45" t="s">
+        <v>477</v>
+      </c>
+      <c r="H45" t="s">
+        <v>478</v>
+      </c>
+      <c r="I45" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>479</v>
+      </c>
+      <c r="B46" t="s">
+        <v>341</v>
+      </c>
+      <c r="C46" t="s">
+        <v>480</v>
+      </c>
+      <c r="D46" t="s">
+        <v>481</v>
+      </c>
+      <c r="E46" t="s">
+        <v>482</v>
+      </c>
+      <c r="F46" t="s">
+        <v>483</v>
+      </c>
+      <c r="G46" t="s">
+        <v>483</v>
+      </c>
+      <c r="H46" t="s">
+        <v>484</v>
+      </c>
+      <c r="I46" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>485</v>
+      </c>
+      <c r="B47" t="s">
+        <v>341</v>
+      </c>
+      <c r="C47" t="s">
+        <v>342</v>
+      </c>
+      <c r="D47" t="s">
+        <v>377</v>
+      </c>
+      <c r="E47" t="s">
+        <v>378</v>
+      </c>
+      <c r="F47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G47" t="s">
+        <v>486</v>
+      </c>
+      <c r="H47" t="s">
+        <v>487</v>
+      </c>
+      <c r="I47" t="s">
+        <v>489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6396E0C-F030-934A-B504-92F32879791C}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -4143,7 +6084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB95367-E2EB-9047-8AAA-2D9AC4AC46BA}">
   <dimension ref="A1:J80"/>
   <sheetViews>

--- a/01_Collect_sequences/01_Input_data/Metadata_sequences.xlsx
+++ b/01_Collect_sequences/01_Input_data/Metadata_sequences.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad_bioinformatik/Applied-bioinformatics/01_Collect_sequences/01_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A54491B-C001-CA45-8A29-E15AED366457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE48EC6-B924-F440-A6BB-F05F91AF4E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="500" windowWidth="19580" windowHeight="17040" activeTab="1" xr2:uid="{A2038ED0-8F7E-E745-BF2F-2D9FF8201B65}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17040" activeTab="3" xr2:uid="{A2038ED0-8F7E-E745-BF2F-2D9FF8201B65}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
-    <sheet name="Downloaded" sheetId="6" r:id="rId2"/>
-    <sheet name="Convertion table" sheetId="5" r:id="rId3"/>
-    <sheet name="Genus in Families" sheetId="4" r:id="rId4"/>
+    <sheet name="Convertion table" sheetId="5" r:id="rId2"/>
+    <sheet name="Downloaded" sheetId="6" r:id="rId3"/>
+    <sheet name="Downloaded1" sheetId="7" r:id="rId4"/>
+    <sheet name="Genus in Families" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Metadata" localSheetId="0">Metadata!$A$1:$E$263</definedName>
-    <definedName name="Taxonomy_species_genus_corrected" localSheetId="1">Downloaded!$A$1:$H$47</definedName>
+    <definedName name="Taxonomy_species_genus_corrected" localSheetId="2">Downloaded!$A$1:$H$47</definedName>
+    <definedName name="Taxonomy_species_genus_corrected" localSheetId="3">Downloaded1!$A$1:$D$47</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,6 +36,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -55,7 +58,21 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{E3726AC7-CF11-D746-A42A-527F1B156F36}" name="Taxonomy_species_genus_corrected" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad_bioinformatik/Applied-bioinformatics/01_Collect_sequences/02_Sequences/Downloaded_5dec/Taxonomy_species_genus_corrected.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad_bioinformatik/Applied-bioinformatics/01_Collect_sequences/02_Sequences/Downloaded_5dec/Taxonomy_species_genus_corrected.csv" decimal="," thousands=" " comma="1">
+      <textFields count="8">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" xr16:uid="{233C097F-4F85-C847-9F8A-233DC04F7550}" name="Taxonomy_species_genus_corrected1" type="6" refreshedVersion="8" background="1" saveData="1">
+    <textPr sourceFile="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad_bioinformatik/Applied-bioinformatics/01_Collect_sequences/02_Sequences/Downloaded_5dec/Taxonomy_species_genus_corrected.csv" decimal="," thousands=" " comma="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -72,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="538">
   <si>
     <t>Abyssisolibacter   </t>
   </si>
@@ -3055,6 +3072,135 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aerococcus viridans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aerococcus christensenii</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alloscardovia omnicolens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anaerococcus lactolyticus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anaerococcus tetradius</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bifidobacterium bifidum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bifidobacterium breve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dialister invisus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dialister micraerophilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fannyhessea vaginae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fusobacterium ulcerans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fusobacterium animalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fusobacterium nucleatum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gardnerella vaginalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gardnerella leopoldii</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gardnerella swidsinskii</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haemophilus parainfluenzae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haemophilus pittmaniae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hoylesella timonensis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lactobacillus crispatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lactobacillus gasseri</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lactobacillus iners</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lactobacillus jensenii</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lactobacillus mulieris</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Megasphaera </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Megasphaera hutchinsoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Megasphaera lornae</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parafannyhessea umbonata</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parvimonas micra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peptoniphilus harei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peptoniphilus lacrimalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peptostreptococcus anaerobius</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porphyromonas gingivalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prevotella illustrans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prevotella amnii</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prevotella bivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prevotella disiens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sneathia sanguinegens</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sneathia vaginalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Streptococcus anginosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ureaplasma parvum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Veillonella montpellierensis</t>
+  </si>
+  <si>
+    <t>Accession N°</t>
   </si>
 </sst>
 </file>
@@ -3215,6 +3361,10 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Taxonomy_species_genus_corrected" connectionId="2" xr16:uid="{F68CD417-344D-144B-887E-5E45648F8ED8}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Taxonomy_species_genus_corrected" connectionId="3" xr16:uid="{57CC761A-E47E-C943-8300-D5D8216217A6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3537,7 +3687,7 @@
   <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4432,11 +4582,232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6396E0C-F030-934A-B504-92F32879791C}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B27">
+    <sortCondition ref="B27"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F05F86-3B20-6D42-86AB-4E472EE5464D}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5863,228 +6234,406 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6396E0C-F030-934A-B504-92F32879791C}">
-  <dimension ref="A1:B27"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1048807D-2CBB-A941-8A73-C2CC2862B634}">
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>170</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B6" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B10" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>387</v>
+      </c>
+      <c r="B14" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B16" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>47</v>
+      <c r="A17" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>67</v>
+      <c r="A18" t="s">
+        <v>400</v>
+      </c>
+      <c r="B18" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>171</v>
+      <c r="A19" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>25</v>
+      <c r="A20" t="s">
+        <v>404</v>
+      </c>
+      <c r="B20" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>32</v>
+      <c r="A21" t="s">
+        <v>405</v>
+      </c>
+      <c r="B21" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>317</v>
+      <c r="A22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B22" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>318</v>
+      <c r="A23" t="s">
+        <v>414</v>
+      </c>
+      <c r="B23" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>330</v>
+      <c r="A24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>330</v>
+      <c r="A25" t="s">
+        <v>424</v>
+      </c>
+      <c r="B25" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>330</v>
+      <c r="A26" t="s">
+        <v>425</v>
+      </c>
+      <c r="B26" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>330</v>
+      <c r="A27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B27" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B28" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>431</v>
+      </c>
+      <c r="B29" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>433</v>
+      </c>
+      <c r="B30" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>436</v>
+      </c>
+      <c r="B31" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>438</v>
+      </c>
+      <c r="B32" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>440</v>
+      </c>
+      <c r="B33" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>446</v>
+      </c>
+      <c r="B35" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>449</v>
+      </c>
+      <c r="B36" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>457</v>
+      </c>
+      <c r="B38" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>461</v>
+      </c>
+      <c r="B39" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B40" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>466</v>
+      </c>
+      <c r="B41" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>468</v>
+      </c>
+      <c r="B42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>470</v>
+      </c>
+      <c r="B43" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>474</v>
+      </c>
+      <c r="B44" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>475</v>
+      </c>
+      <c r="B45" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>479</v>
+      </c>
+      <c r="B46" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>485</v>
+      </c>
+      <c r="B47" t="s">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B27">
-    <sortCondition ref="B27"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB95367-E2EB-9047-8AAA-2D9AC4AC46BA}">
   <dimension ref="A1:J80"/>
   <sheetViews>

--- a/01_Collect_sequences/01_Input_data/Metadata_sequences.xlsx
+++ b/01_Collect_sequences/01_Input_data/Metadata_sequences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claranordquist/Documents/Universitetet/HT24/Tillämpad_bioinformatik/Applied-bioinformatics/01_Collect_sequences/01_Input_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE48EC6-B924-F440-A6BB-F05F91AF4E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A420532-6B5E-334A-8946-936A95AC0E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="17040" activeTab="3" xr2:uid="{A2038ED0-8F7E-E745-BF2F-2D9FF8201B65}"/>
+    <workbookView xWindow="1040" yWindow="500" windowWidth="27760" windowHeight="17500" activeTab="3" xr2:uid="{A2038ED0-8F7E-E745-BF2F-2D9FF8201B65}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="562">
   <si>
     <t>Abyssisolibacter   </t>
   </si>
@@ -3201,6 +3201,78 @@
   </si>
   <si>
     <t>Accession N°</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>Same genus</t>
+  </si>
+  <si>
+    <t>Leptotrichia sp</t>
+  </si>
+  <si>
+    <t>Caudoviricetes sp.</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>Uncultured bactrium</t>
+  </si>
+  <si>
+    <t>Promethearchaeum syntrophicum</t>
+  </si>
+  <si>
+    <t>Slackia heliotrinireducens</t>
+  </si>
+  <si>
+    <t>Parabacteroides sp</t>
+  </si>
+  <si>
+    <t>Best BLAST hit V3V4</t>
+  </si>
+  <si>
+    <t>Best BLAST hit V1V9</t>
+  </si>
+  <si>
+    <t>Brevibacterium sp</t>
+  </si>
+  <si>
+    <t>Koleobacter methoxysyntrophicus</t>
+  </si>
+  <si>
+    <t>Granulicatella adiacens</t>
+  </si>
+  <si>
+    <t>Lacrimispora sp</t>
+  </si>
+  <si>
+    <t>Same</t>
+  </si>
+  <si>
+    <t>V3V4</t>
+  </si>
+  <si>
+    <t>V1V9</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Caudoviricetes sp</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Correct species</t>
+  </si>
+  <si>
+    <t>Best BLAST hit tot</t>
+  </si>
+  <si>
+    <t>Whole</t>
   </si>
 </sst>
 </file>
@@ -6236,396 +6308,900 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1048807D-2CBB-A941-8A73-C2CC2862B634}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>340</v>
       </c>
       <c r="B2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>558</v>
+      </c>
+      <c r="G2">
+        <v>45</v>
+      </c>
+      <c r="H2">
+        <v>44</v>
+      </c>
+      <c r="I2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>348</v>
       </c>
       <c r="B3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(C:C,C2)/G2</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF(D:D,D2)/H2</f>
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(E:E,E2)/I2</f>
+        <v>0.54347826086956519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>350</v>
       </c>
       <c r="B4" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(C:C,C6)/G2</f>
+        <v>0.2</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF(D:D,D6)/H2</f>
+        <v>0.22727272727272727</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(E:E,E6)/I2</f>
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>357</v>
       </c>
       <c r="B5" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIF(C:C,C7)/G2</f>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF(D:D,D7)/H2</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIF(E:E,E7)/I2</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>362</v>
       </c>
       <c r="B6" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="G6">
+        <f>(1-G3-G4-G5)</f>
+        <v>0.17777777777777776</v>
+      </c>
+      <c r="H6">
+        <f>(1-H3-H4-H5)</f>
+        <v>0.22727272727272724</v>
+      </c>
+      <c r="I6">
+        <f>(1-I3-I4-I5)</f>
+        <v>0.19565217391304351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>364</v>
       </c>
       <c r="B7" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>366</v>
       </c>
       <c r="B8" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>371</v>
       </c>
       <c r="B9" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>374</v>
       </c>
       <c r="B10" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>376</v>
       </c>
       <c r="B11" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>382</v>
       </c>
       <c r="B12" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>384</v>
       </c>
       <c r="B13" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>393</v>
       </c>
       <c r="B15" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>395</v>
       </c>
       <c r="B16" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>397</v>
       </c>
       <c r="B17" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>400</v>
       </c>
       <c r="B18" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>402</v>
       </c>
       <c r="B19" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>404</v>
       </c>
       <c r="B20" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>405</v>
       </c>
       <c r="B21" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>412</v>
       </c>
       <c r="B22" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>414</v>
       </c>
       <c r="B23" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>420</v>
       </c>
       <c r="B24" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>424</v>
       </c>
       <c r="B25" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>425</v>
       </c>
       <c r="B26" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>427</v>
       </c>
       <c r="B27" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>429</v>
       </c>
       <c r="B28" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>431</v>
       </c>
       <c r="B29" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>433</v>
       </c>
       <c r="B30" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>436</v>
       </c>
       <c r="B31" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>438</v>
       </c>
       <c r="B32" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>440</v>
       </c>
       <c r="B33" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>443</v>
       </c>
       <c r="B34" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>446</v>
       </c>
       <c r="B35" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>449</v>
       </c>
       <c r="B36" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>451</v>
       </c>
       <c r="B37" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>457</v>
       </c>
       <c r="B38" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>461</v>
       </c>
       <c r="B39" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>464</v>
       </c>
       <c r="B40" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>466</v>
       </c>
       <c r="B41" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>468</v>
       </c>
       <c r="B42" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>470</v>
       </c>
       <c r="B43" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>474</v>
       </c>
       <c r="B44" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>475</v>
       </c>
       <c r="B45" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>479</v>
       </c>
       <c r="B46" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>485</v>
       </c>
       <c r="B47" t="s">
         <v>536</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
